--- a/salida/CONSOLIDADO_Grupo Carosa.xlsx
+++ b/salida/CONSOLIDADO_Grupo Carosa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="156">
   <si>
     <t>COD TQ</t>
   </si>
@@ -130,21 +130,21 @@
     <t>FARMACIA LA PROVIDENCIA</t>
   </si>
   <si>
+    <t>FARMACIA BEATRIZ</t>
+  </si>
+  <si>
+    <t>FARMACIA PACALLI</t>
+  </si>
+  <si>
+    <t>FARMACIA SANTA BARBARA</t>
+  </si>
+  <si>
+    <t>FARMACIA LEMUSAL</t>
+  </si>
+  <si>
     <t>FARMACIA SAN BENITO</t>
   </si>
   <si>
-    <t>FARMACIA BEATRIZ</t>
-  </si>
-  <si>
-    <t>FARMACIA PACALLI</t>
-  </si>
-  <si>
-    <t>FARMACIA SANTA BARBARA</t>
-  </si>
-  <si>
-    <t>FARMACIA LEMUSAL</t>
-  </si>
-  <si>
     <t>FARMACIA LA FE</t>
   </si>
   <si>
@@ -202,117 +202,117 @@
     <t>TEQ10070</t>
   </si>
   <si>
+    <t>TEQ10110</t>
+  </si>
+  <si>
+    <t>TEQ10042</t>
+  </si>
+  <si>
+    <t>TEQ10180</t>
+  </si>
+  <si>
+    <t>TEQ10007</t>
+  </si>
+  <si>
+    <t>TEQ10008</t>
+  </si>
+  <si>
+    <t>TEQ10024</t>
+  </si>
+  <si>
+    <t>TEQ10067</t>
+  </si>
+  <si>
+    <t>TEQ10080</t>
+  </si>
+  <si>
+    <t>TEQ10091</t>
+  </si>
+  <si>
+    <t>TEQ10104</t>
+  </si>
+  <si>
+    <t>TEQ10185</t>
+  </si>
+  <si>
+    <t>TEQ10206</t>
+  </si>
+  <si>
+    <t>TEQ10223</t>
+  </si>
+  <si>
+    <t>TEQ10240</t>
+  </si>
+  <si>
+    <t>TEQ10059</t>
+  </si>
+  <si>
+    <t>TEQ10092</t>
+  </si>
+  <si>
     <t>TEQ10071</t>
   </si>
   <si>
-    <t>TEQ10110</t>
-  </si>
-  <si>
-    <t>TEQ10042</t>
-  </si>
-  <si>
-    <t>TEQ10180</t>
-  </si>
-  <si>
-    <t>TEQ10007</t>
-  </si>
-  <si>
-    <t>TEQ10008</t>
+    <t>TEQ10114</t>
   </si>
   <si>
     <t>TEQ10009</t>
   </si>
   <si>
-    <t>TEQ10024</t>
-  </si>
-  <si>
     <t>TEQ10027</t>
   </si>
   <si>
     <t>TEQ10037</t>
   </si>
   <si>
+    <t>TEQ10056</t>
+  </si>
+  <si>
+    <t>TEQ10061</t>
+  </si>
+  <si>
     <t>TEQ10066</t>
   </si>
   <si>
-    <t>TEQ10067</t>
-  </si>
-  <si>
-    <t>TEQ10080</t>
-  </si>
-  <si>
-    <t>TEQ10091</t>
+    <t>TEQ10076</t>
+  </si>
+  <si>
+    <t>TEQ10078</t>
+  </si>
+  <si>
+    <t>TEQ10094</t>
   </si>
   <si>
     <t>TEQ10095</t>
   </si>
   <si>
-    <t>TEQ10104</t>
-  </si>
-  <si>
-    <t>TEQ10185</t>
-  </si>
-  <si>
-    <t>TEQ10206</t>
+    <t>TEQ10097</t>
+  </si>
+  <si>
+    <t>TEQ10117</t>
+  </si>
+  <si>
+    <t>TEQ10122</t>
+  </si>
+  <si>
+    <t>TEQ10154</t>
+  </si>
+  <si>
+    <t>TEQ10155</t>
+  </si>
+  <si>
+    <t>TEQ10156</t>
+  </si>
+  <si>
+    <t>TEQ10204</t>
+  </si>
+  <si>
+    <t>TEQ10217</t>
   </si>
   <si>
     <t>TEQ10221</t>
   </si>
   <si>
-    <t>TEQ10223</t>
-  </si>
-  <si>
-    <t>TEQ10240</t>
-  </si>
-  <si>
-    <t>TEQ10059</t>
-  </si>
-  <si>
-    <t>TEQ10092</t>
-  </si>
-  <si>
-    <t>TEQ10114</t>
-  </si>
-  <si>
-    <t>TEQ10056</t>
-  </si>
-  <si>
-    <t>TEQ10061</t>
-  </si>
-  <si>
-    <t>TEQ10076</t>
-  </si>
-  <si>
-    <t>TEQ10078</t>
-  </si>
-  <si>
-    <t>TEQ10094</t>
-  </si>
-  <si>
-    <t>TEQ10097</t>
-  </si>
-  <si>
-    <t>TEQ10117</t>
-  </si>
-  <si>
-    <t>TEQ10122</t>
-  </si>
-  <si>
-    <t>TEQ10154</t>
-  </si>
-  <si>
-    <t>TEQ10155</t>
-  </si>
-  <si>
-    <t>TEQ10156</t>
-  </si>
-  <si>
-    <t>TEQ10204</t>
-  </si>
-  <si>
-    <t>TEQ10217</t>
-  </si>
-  <si>
     <t>TEQ10222</t>
   </si>
   <si>
@@ -355,115 +355,115 @@
     <t>NOR-CIPROX 500 MG X 40 TAB.</t>
   </si>
   <si>
+    <t>QUETIATEG 25 MG X 30 TAB.</t>
+  </si>
+  <si>
+    <t>NOR-ALGIA DIS. X 100 TAB.</t>
+  </si>
+  <si>
+    <t>ORAL DENT TG FCO. X 120 ML</t>
+  </si>
+  <si>
+    <t>NOR-TRYPTOL 25 MG CAJ X 30 TAB.</t>
+  </si>
+  <si>
+    <t>NOR-VASTINA 10MG X 20 TABS.</t>
+  </si>
+  <si>
+    <t>NOR-TRIPAR 100 MG PPS FCO X 30 ML.</t>
+  </si>
+  <si>
+    <t>NOR-VOLTEN FLEX X 20 TAB.</t>
+  </si>
+  <si>
+    <t>NOR-KEDY JBE FCO X 120 ML.</t>
+  </si>
+  <si>
+    <t>NOR SECNAL 125 MG PPS</t>
+  </si>
+  <si>
+    <t>NOR-ALGIA X 10 TAB.</t>
+  </si>
+  <si>
+    <t>ACIDO MEFENAMICO 500MG TM DISx100TAB</t>
+  </si>
+  <si>
+    <t>NOR-GLUCOX X 30 TABS.</t>
+  </si>
+  <si>
+    <t>ATORVASTATEG 10 MG TAB REC CAJ X 10 TAB</t>
+  </si>
+  <si>
+    <t>GLIMEPITEG 4 MG CAJX15TAB</t>
+  </si>
+  <si>
+    <t>IRBESARTEG H 150 MG X 14 TAB.</t>
+  </si>
+  <si>
+    <t>LEVOFLOXATEG 500 MG X 7 TAB.</t>
+  </si>
+  <si>
     <t>METFORTEG 850 MG X 30 TAB.</t>
   </si>
   <si>
-    <t>QUETIATEG 25 MG X 30 TAB.</t>
-  </si>
-  <si>
-    <t>NOR-ALGIA DIS. X 100 TAB.</t>
-  </si>
-  <si>
-    <t>ORAL DENT TG FCO. X 120 ML</t>
-  </si>
-  <si>
-    <t>NOR-TRYPTOL 25 MG CAJ X 30 TAB.</t>
-  </si>
-  <si>
-    <t>NOR-VASTINA 10MG X 20 TABS.</t>
+    <t>DULOXETEG 60 MG X 14 CAP.</t>
   </si>
   <si>
     <t>NOR-TRIPAR 500 MG CAJ X 6 TAB.</t>
   </si>
   <si>
-    <t>NOR-TRIPAR 100 MG PPS FCO X 30 ML.</t>
-  </si>
-  <si>
     <t>NOR-VIBRAX 100MG + 2 TAB EXT CAJ X 3 TAB.</t>
   </si>
   <si>
     <t>DIMETITEG 100 MG GOTAS FCO X 20 ML.</t>
   </si>
   <si>
+    <t>GABAPENTEG 300 MG X 30 CAP.</t>
+  </si>
+  <si>
+    <t>IRBESARTEG H 300 MG X 14 TAB.</t>
+  </si>
+  <si>
     <t>GLUCOSATEG 1500 MG X 15 SOBRES.</t>
   </si>
   <si>
-    <t>NOR-VOLTEN FLEX X 20 TAB.</t>
-  </si>
-  <si>
-    <t>NOR-KEDY JBE FCO X 120 ML.</t>
-  </si>
-  <si>
-    <t>NOR SECNAL 125 MG PPS</t>
+    <t>CINARITEG FORTE 75 MG TAB X 20 TAB.</t>
+  </si>
+  <si>
+    <t>DEXKETOPROTEG 25 MG X 10 TAB.</t>
+  </si>
+  <si>
+    <t>TRIMEBUTEG 200 MG X 30 TAB.</t>
   </si>
   <si>
     <t>AZITROTEG 500MG X 3 TAB.</t>
   </si>
   <si>
-    <t>NOR-ALGIA X 10 TAB.</t>
-  </si>
-  <si>
-    <t>ACIDO MEFENAMICO 500MG TM DISx100TAB</t>
-  </si>
-  <si>
-    <t>NOR-GLUCOX X 30 TABS.</t>
+    <t>DESLORATEG 2.5MG/5ML JBE. FCO X 60 ML.</t>
+  </si>
+  <si>
+    <t>GLIBENCLATEG PLUS X 30 TAB.</t>
+  </si>
+  <si>
+    <t>DULOXETEG 30 MG X 7 CAP.</t>
+  </si>
+  <si>
+    <t>MONTELUTEG 10 MG X 30 TAB.</t>
+  </si>
+  <si>
+    <t>MONTELUTEG 4 MG X 30 TAB.</t>
+  </si>
+  <si>
+    <t>AMLODITEG 5 MG CAJ X 30 TAB.</t>
+  </si>
+  <si>
+    <t>OXCARBAZETEG 300 MG TAB REC CAJ X 20 TAB</t>
+  </si>
+  <si>
+    <t>ESOMEPRATEG 40MG X 30 TAB.</t>
   </si>
   <si>
     <t>MELOXITEG 15MG X 10 TABS.</t>
-  </si>
-  <si>
-    <t>ATORVASTATEG 10 MG TAB REC CAJ X 10 TAB</t>
-  </si>
-  <si>
-    <t>GLIMEPITEG 4 MG CAJX15TAB</t>
-  </si>
-  <si>
-    <t>IRBESARTEG H 150 MG X 14 TAB.</t>
-  </si>
-  <si>
-    <t>LEVOFLOXATEG 500 MG X 7 TAB.</t>
-  </si>
-  <si>
-    <t>DULOXETEG 60 MG X 14 CAP.</t>
-  </si>
-  <si>
-    <t>GABAPENTEG 300 MG X 30 CAP.</t>
-  </si>
-  <si>
-    <t>IRBESARTEG H 300 MG X 14 TAB.</t>
-  </si>
-  <si>
-    <t>CINARITEG FORTE 75 MG TAB X 20 TAB.</t>
-  </si>
-  <si>
-    <t>DEXKETOPROTEG 25 MG X 10 TAB.</t>
-  </si>
-  <si>
-    <t>TRIMEBUTEG 200 MG X 30 TAB.</t>
-  </si>
-  <si>
-    <t>DESLORATEG 2.5MG/5ML JBE. FCO X 60 ML.</t>
-  </si>
-  <si>
-    <t>GLIBENCLATEG PLUS X 30 TAB.</t>
-  </si>
-  <si>
-    <t>DULOXETEG 30 MG X 7 CAP.</t>
-  </si>
-  <si>
-    <t>MONTELUTEG 10 MG X 30 TAB.</t>
-  </si>
-  <si>
-    <t>MONTELUTEG 4 MG X 30 TAB.</t>
-  </si>
-  <si>
-    <t>AMLODITEG 5 MG CAJ X 30 TAB.</t>
-  </si>
-  <si>
-    <t>OXCARBAZETEG 300 MG TAB REC CAJ X 20 TAB</t>
-  </si>
-  <si>
-    <t>ESOMEPRATEG 40MG X 30 TAB.</t>
   </si>
   <si>
     <t>AMBROXTEG COMPUESTO SOL FCO X 120 ML</t>
@@ -839,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,25 +1461,25 @@
         <v>2009234</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>401007</v>
+        <v>601419</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>9.0015</v>
@@ -1496,31 +1496,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2017215</v>
+        <v>2009944</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>601256</v>
+        <v>601013</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>4.283265</v>
+        <v>6.582233333333333</v>
       </c>
       <c r="L18" t="s">
         <v>152</v>
@@ -1534,16 +1534,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2009234</v>
+        <v>2006266</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>601419</v>
+        <v>802009</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>9.0015</v>
+        <v>10.965375</v>
       </c>
       <c r="L19" t="s">
         <v>152</v>
@@ -1572,31 +1572,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2009944</v>
+        <v>2023115</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>601013</v>
+        <v>607001</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>6.582233333333333</v>
+        <v>13.412955</v>
       </c>
       <c r="L20" t="s">
         <v>152</v>
@@ -1610,31 +1610,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2006266</v>
+        <v>2023115</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>802009</v>
+        <v>601256</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>10.965375</v>
+        <v>13.412955</v>
       </c>
       <c r="L21" t="s">
         <v>152</v>
@@ -1648,31 +1648,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2023115</v>
+        <v>2092300</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>607001</v>
+        <v>301008</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>13.412955</v>
+        <v>3.08448</v>
       </c>
       <c r="L22" t="s">
         <v>152</v>
@@ -1686,31 +1686,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2023115</v>
+        <v>2009234</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>601256</v>
+        <v>906024</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>13.412955</v>
+        <v>9.0015</v>
       </c>
       <c r="L23" t="s">
         <v>152</v>
@@ -1724,34 +1724,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2092300</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>301008</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
+        <v>2023115</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>3.08448</v>
+        <v>13.412955</v>
       </c>
       <c r="L24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s">
         <v>154</v>
@@ -1762,34 +1750,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2009234</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>906024</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
+        <v>2019044</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>9.0015</v>
+        <v>5.2706</v>
       </c>
       <c r="L25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s">
         <v>154</v>
@@ -1800,19 +1776,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2023115</v>
+        <v>2019044</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J26">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>13.412955</v>
+        <v>5.2706</v>
       </c>
       <c r="L26" t="s">
         <v>153</v>
@@ -1826,19 +1802,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2019044</v>
+        <v>2018522</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>5.2706</v>
+        <v>4.38615</v>
       </c>
       <c r="L27" t="s">
         <v>153</v>
@@ -1852,19 +1828,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2019044</v>
+        <v>2009234</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>5.2706</v>
+        <v>9.0015</v>
       </c>
       <c r="L28" t="s">
         <v>153</v>
@@ -1878,19 +1854,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2018522</v>
+        <v>2009234</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>4.38615</v>
+        <v>9.0015</v>
       </c>
       <c r="L29" t="s">
         <v>153</v>
@@ -1907,13 +1883,13 @@
         <v>2009234</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="K30">
         <v>9.0015</v>
@@ -1930,7 +1906,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2019242</v>
+        <v>2017598</v>
       </c>
       <c r="H31" t="s">
         <v>67</v>
@@ -1939,10 +1915,10 @@
         <v>118</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>5.756746666666667</v>
+        <v>1.78695</v>
       </c>
       <c r="L31" t="s">
         <v>153</v>
@@ -1956,19 +1932,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2018188</v>
+        <v>2017598</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32">
-        <v>5.365904</v>
+        <v>1.78695</v>
       </c>
       <c r="L32" t="s">
         <v>153</v>
@@ -1982,19 +1958,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2009234</v>
+        <v>2018102</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>9.0015</v>
+        <v>5.007792</v>
       </c>
       <c r="L33" t="s">
         <v>153</v>
@@ -2008,19 +1984,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2009234</v>
+        <v>2009944</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J34">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>9.0015</v>
+        <v>6.582233333333333</v>
       </c>
       <c r="L34" t="s">
         <v>153</v>
@@ -2034,19 +2010,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2017598</v>
+        <v>2009944</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K35">
-        <v>1.78695</v>
+        <v>6.582233333333333</v>
       </c>
       <c r="L35" t="s">
         <v>153</v>
@@ -2060,19 +2036,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2018140</v>
+        <v>2013534</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>2.552992</v>
+        <v>14.61809333333334</v>
       </c>
       <c r="L36" t="s">
         <v>153</v>
@@ -2086,19 +2062,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2017598</v>
+        <v>2021553</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K37">
-        <v>1.78695</v>
+        <v>7.532866666666668</v>
       </c>
       <c r="L37" t="s">
         <v>153</v>
@@ -2112,19 +2088,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2018140</v>
+        <v>2060974</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K38">
-        <v>2.552992</v>
+        <v>6.919166666666666</v>
       </c>
       <c r="L38" t="s">
         <v>153</v>
@@ -2138,19 +2114,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2023450</v>
+        <v>2009234</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>2.676213333333334</v>
+        <v>9.0015</v>
       </c>
       <c r="L39" t="s">
         <v>153</v>
@@ -2164,19 +2140,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2018102</v>
+        <v>2008996</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>5.007792</v>
+        <v>19.93682666666667</v>
       </c>
       <c r="L40" t="s">
         <v>153</v>
@@ -2193,13 +2169,13 @@
         <v>2009234</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J41">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>9.0015</v>
@@ -2216,19 +2192,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2009944</v>
+        <v>2009234</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>6.582233333333333</v>
+        <v>9.0015</v>
       </c>
       <c r="L42" t="s">
         <v>153</v>
@@ -2242,19 +2218,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2009944</v>
+        <v>2022914</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="J43">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>6.582233333333333</v>
+        <v>3.6822</v>
       </c>
       <c r="L43" t="s">
         <v>153</v>
@@ -2268,19 +2244,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2013534</v>
+        <v>2006204</v>
       </c>
       <c r="H44" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K44">
-        <v>14.61809333333334</v>
+        <v>1.172528</v>
       </c>
       <c r="L44" t="s">
         <v>153</v>
@@ -2294,19 +2270,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2021553</v>
+        <v>2009234</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J45">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>7.532866666666668</v>
+        <v>9.0015</v>
       </c>
       <c r="L45" t="s">
         <v>153</v>
@@ -2320,19 +2296,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2060974</v>
+        <v>2003465</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J46">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>6.919166666666666</v>
+        <v>68.47056000000001</v>
       </c>
       <c r="L46" t="s">
         <v>153</v>
@@ -2346,7 +2322,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2009647</v>
+        <v>2037194</v>
       </c>
       <c r="H47" t="s">
         <v>72</v>
@@ -2355,16 +2331,16 @@
         <v>123</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K47">
-        <v>2.86875</v>
+        <v>16.581375</v>
       </c>
       <c r="L47" t="s">
         <v>153</v>
       </c>
       <c r="M47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2372,19 +2348,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2009234</v>
+        <v>2045045</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I48" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="K48">
-        <v>9.0015</v>
+        <v>2.713516666666667</v>
       </c>
       <c r="L48" t="s">
         <v>153</v>
@@ -2398,7 +2374,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2020567</v>
+        <v>2012593</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
@@ -2410,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>3.529136</v>
+        <v>3.98544</v>
       </c>
       <c r="L49" t="s">
         <v>153</v>
@@ -2424,22 +2400,34 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2008996</v>
+        <v>2092492</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>802018</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>19.93682666666667</v>
+        <v>4.74</v>
       </c>
       <c r="L50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M50" t="s">
         <v>154</v>
@@ -2450,22 +2438,34 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2009234</v>
+        <v>2090885</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>802018</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="J51">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>9.0015</v>
+        <v>4.482135</v>
       </c>
       <c r="L51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M51" t="s">
         <v>154</v>
@@ -2476,22 +2476,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2017215</v>
+        <v>2091543</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>201141</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="J52">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="K52">
-        <v>4.283265</v>
+        <v>3.28389</v>
       </c>
       <c r="L52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M52" t="s">
         <v>154</v>
@@ -2502,22 +2514,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2009234</v>
+        <v>2091628</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>612003</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>9.0015</v>
+        <v>13.001141</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M53" t="s">
         <v>154</v>
@@ -2528,22 +2552,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2012876</v>
+        <v>2090168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>601256</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54">
-        <v>4.499504</v>
+        <v>3.743298</v>
       </c>
       <c r="L54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M54" t="s">
         <v>154</v>
@@ -2554,22 +2590,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2009234</v>
+        <v>2090403</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>1412001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>9.0015</v>
+        <v>17.96424</v>
       </c>
       <c r="L55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M55" t="s">
         <v>154</v>
@@ -2580,22 +2628,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2012876</v>
+        <v>2091543</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>301008</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s">
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K56">
-        <v>4.499504</v>
+        <v>3.28389</v>
       </c>
       <c r="L56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M56" t="s">
         <v>154</v>
@@ -2606,19 +2666,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2022914</v>
+        <v>2090120</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <v>3.6822</v>
+        <v>6.070861499999998</v>
       </c>
       <c r="L57" t="s">
         <v>153</v>
@@ -2632,19 +2692,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2018188</v>
+        <v>2019921</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>5.365904</v>
+        <v>2.521666666666667</v>
       </c>
       <c r="L58" t="s">
         <v>153</v>
@@ -2658,19 +2718,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2006204</v>
+        <v>2091529</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J59">
         <v>13</v>
       </c>
       <c r="K59">
-        <v>1.172528</v>
+        <v>3.28389</v>
       </c>
       <c r="L59" t="s">
         <v>153</v>
@@ -2684,19 +2744,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2009234</v>
+        <v>2090113</v>
       </c>
       <c r="H60" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>9.0015</v>
+        <v>7.099903654955998</v>
       </c>
       <c r="L60" t="s">
         <v>153</v>
@@ -2710,19 +2770,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2003465</v>
+        <v>2091543</v>
       </c>
       <c r="H61" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="K61">
-        <v>68.47056000000001</v>
+        <v>3.28389</v>
       </c>
       <c r="L61" t="s">
         <v>153</v>
@@ -2736,25 +2796,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2037194</v>
+        <v>2090526</v>
       </c>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J62">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>16.581375</v>
+        <v>4.802525159999999</v>
       </c>
       <c r="L62" t="s">
         <v>153</v>
       </c>
       <c r="M62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2762,19 +2822,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2045045</v>
+        <v>2090120</v>
       </c>
       <c r="H63" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I63" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="J63">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>2.713516666666667</v>
+        <v>6.070861499999998</v>
       </c>
       <c r="L63" t="s">
         <v>153</v>
@@ -2788,19 +2848,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2012593</v>
+        <v>2090168</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K64">
-        <v>3.98544</v>
+        <v>3.743298</v>
       </c>
       <c r="L64" t="s">
         <v>153</v>
@@ -2814,19 +2874,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2003465</v>
+        <v>2091482</v>
       </c>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J65">
         <v>1</v>
       </c>
       <c r="K65">
-        <v>68.47056000000001</v>
+        <v>2.962757688</v>
       </c>
       <c r="L65" t="s">
         <v>153</v>
@@ -2840,19 +2900,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2009234</v>
+        <v>2091505</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>9.0015</v>
+        <v>7.235165775599999</v>
       </c>
       <c r="L66" t="s">
         <v>153</v>
@@ -2866,34 +2926,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2091703</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>601014</v>
-      </c>
-      <c r="E67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" t="s">
-        <v>47</v>
+        <v>2091628</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K67">
-        <v>5.390988999999999</v>
+        <v>13.001141</v>
       </c>
       <c r="L67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M67" t="s">
         <v>154</v>
@@ -2904,34 +2952,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2092492</v>
-      </c>
-      <c r="C68" t="s">
+        <v>2090724</v>
+      </c>
+      <c r="H68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" t="s">
+        <v>139</v>
+      </c>
+      <c r="J68">
         <v>13</v>
       </c>
-      <c r="D68">
-        <v>802018</v>
-      </c>
-      <c r="E68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68" t="s">
-        <v>132</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
       <c r="K68">
-        <v>4.74</v>
+        <v>9.719344124999999</v>
       </c>
       <c r="L68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M68" t="s">
         <v>154</v>
@@ -2942,34 +2978,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2090885</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69">
-        <v>802018</v>
-      </c>
-      <c r="E69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>47</v>
+        <v>2091390</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J69">
         <v>2</v>
       </c>
       <c r="K69">
-        <v>4.482135</v>
+        <v>6.811628</v>
       </c>
       <c r="L69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M69" t="s">
         <v>154</v>
@@ -2980,34 +3004,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2091543</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>201141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70" t="s">
-        <v>47</v>
+        <v>2090366</v>
       </c>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I70" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J70">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K70">
-        <v>3.28389</v>
+        <v>5.170655655</v>
       </c>
       <c r="L70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M70" t="s">
         <v>154</v>
@@ -3018,34 +3030,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2090519</v>
-      </c>
-      <c r="C71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>201141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" t="s">
-        <v>47</v>
+        <v>2090403</v>
       </c>
       <c r="H71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K71">
-        <v>5.6261228</v>
+        <v>17.96424</v>
       </c>
       <c r="L71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M71" t="s">
         <v>154</v>
@@ -3056,34 +3056,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2091727</v>
-      </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72">
-        <v>602611</v>
-      </c>
-      <c r="E72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>47</v>
+        <v>2091604</v>
       </c>
       <c r="H72" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>15.399705</v>
+        <v>8.019070000000001</v>
       </c>
       <c r="L72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M72" t="s">
         <v>154</v>
@@ -3094,34 +3082,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2091628</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73">
-        <v>612003</v>
-      </c>
-      <c r="E73" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" t="s">
-        <v>47</v>
+        <v>2090397</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73">
-        <v>13.001141</v>
+        <v>5.840643929999999</v>
       </c>
       <c r="L73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M73" t="s">
         <v>154</v>
@@ -3132,34 +3108,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2090168</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>601256</v>
-      </c>
-      <c r="E74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
+        <v>2092553</v>
       </c>
       <c r="H74" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>3.743298</v>
+        <v>9.15</v>
       </c>
       <c r="L74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M74" t="s">
         <v>154</v>
@@ -3170,34 +3134,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2090663</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75">
-        <v>601419</v>
-      </c>
-      <c r="E75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" t="s">
-        <v>47</v>
+        <v>2094221</v>
       </c>
       <c r="H75" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>10.368708</v>
+        <v>14.4415</v>
       </c>
       <c r="L75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M75" t="s">
         <v>154</v>
@@ -3208,34 +3160,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2090403</v>
-      </c>
-      <c r="C76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76">
-        <v>1412001</v>
-      </c>
-      <c r="E76" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" t="s">
-        <v>49</v>
+        <v>2093136</v>
       </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K76">
-        <v>17.96424</v>
+        <v>13.86</v>
       </c>
       <c r="L76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M76" t="s">
         <v>154</v>
@@ -3246,34 +3186,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2091543</v>
-      </c>
-      <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77">
-        <v>301008</v>
-      </c>
-      <c r="E77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s">
-        <v>49</v>
+        <v>2090588</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I77" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>3.28389</v>
+        <v>7.536237890399999</v>
       </c>
       <c r="L77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M77" t="s">
         <v>154</v>
@@ -3284,34 +3212,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2090519</v>
-      </c>
-      <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78">
-        <v>301008</v>
-      </c>
-      <c r="E78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s">
-        <v>49</v>
+        <v>2094191</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I78" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J78">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>5.6261228</v>
+        <v>14.4415</v>
       </c>
       <c r="L78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M78" t="s">
         <v>154</v>
@@ -3322,34 +3238,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2091727</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79">
-        <v>906024</v>
-      </c>
-      <c r="E79" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" t="s">
-        <v>47</v>
+        <v>2091642</v>
       </c>
       <c r="H79" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K79">
-        <v>15.399705</v>
+        <v>5.7668505</v>
       </c>
       <c r="L79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M79" t="s">
         <v>154</v>
@@ -3360,19 +3264,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2090120</v>
+        <v>2090830</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>6.070861499999998</v>
+        <v>4.710037</v>
       </c>
       <c r="L80" t="s">
         <v>153</v>
@@ -3386,19 +3290,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2091727</v>
+        <v>2092492</v>
       </c>
       <c r="H81" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="J81">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>15.399705</v>
+        <v>4.74</v>
       </c>
       <c r="L81" t="s">
         <v>153</v>
@@ -3412,752 +3316,24 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2019921</v>
+        <v>2092812</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I82" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K82">
-        <v>2.521666666666667</v>
+        <v>4.84</v>
       </c>
       <c r="L82" t="s">
         <v>153</v>
       </c>
       <c r="M82" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>2091529</v>
-      </c>
-      <c r="H83" t="s">
-        <v>71</v>
-      </c>
-      <c r="I83" t="s">
-        <v>122</v>
-      </c>
-      <c r="J83">
-        <v>13</v>
-      </c>
-      <c r="K83">
-        <v>3.28389</v>
-      </c>
-      <c r="L83" t="s">
-        <v>153</v>
-      </c>
-      <c r="M83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>2091703</v>
-      </c>
-      <c r="H84" t="s">
-        <v>50</v>
-      </c>
-      <c r="I84" t="s">
-        <v>101</v>
-      </c>
-      <c r="J84">
-        <v>12</v>
-      </c>
-      <c r="K84">
-        <v>5.390988999999999</v>
-      </c>
-      <c r="L84" t="s">
-        <v>153</v>
-      </c>
-      <c r="M84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>2090113</v>
-      </c>
-      <c r="H85" t="s">
-        <v>86</v>
-      </c>
-      <c r="I85" t="s">
-        <v>137</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>7.099903654955998</v>
-      </c>
-      <c r="L85" t="s">
-        <v>153</v>
-      </c>
-      <c r="M85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>2091543</v>
-      </c>
-      <c r="H86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I86" t="s">
-        <v>134</v>
-      </c>
-      <c r="J86">
-        <v>181</v>
-      </c>
-      <c r="K86">
-        <v>3.28389</v>
-      </c>
-      <c r="L86" t="s">
-        <v>153</v>
-      </c>
-      <c r="M86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>2090519</v>
-      </c>
-      <c r="H87" t="s">
-        <v>83</v>
-      </c>
-      <c r="I87" t="s">
-        <v>134</v>
-      </c>
-      <c r="J87">
-        <v>181</v>
-      </c>
-      <c r="K87">
-        <v>5.6261228</v>
-      </c>
-      <c r="L87" t="s">
-        <v>153</v>
-      </c>
-      <c r="M87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>2090526</v>
-      </c>
-      <c r="H88" t="s">
-        <v>87</v>
-      </c>
-      <c r="I88" t="s">
-        <v>138</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>4.802525159999999</v>
-      </c>
-      <c r="L88" t="s">
-        <v>153</v>
-      </c>
-      <c r="M88" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>2090120</v>
-      </c>
-      <c r="H89" t="s">
-        <v>72</v>
-      </c>
-      <c r="I89" t="s">
-        <v>123</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>6.070861499999998</v>
-      </c>
-      <c r="L89" t="s">
-        <v>153</v>
-      </c>
-      <c r="M89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>2090168</v>
-      </c>
-      <c r="H90" t="s">
-        <v>62</v>
-      </c>
-      <c r="I90" t="s">
-        <v>113</v>
-      </c>
-      <c r="J90">
-        <v>26</v>
-      </c>
-      <c r="K90">
-        <v>3.743298</v>
-      </c>
-      <c r="L90" t="s">
-        <v>153</v>
-      </c>
-      <c r="M90" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>2091482</v>
-      </c>
-      <c r="H91" t="s">
-        <v>88</v>
-      </c>
-      <c r="I91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>2.962757688</v>
-      </c>
-      <c r="L91" t="s">
-        <v>153</v>
-      </c>
-      <c r="M91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>2091505</v>
-      </c>
-      <c r="H92" t="s">
-        <v>89</v>
-      </c>
-      <c r="I92" t="s">
-        <v>140</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92">
-        <v>7.235165775599999</v>
-      </c>
-      <c r="L92" t="s">
-        <v>153</v>
-      </c>
-      <c r="M92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>2091628</v>
-      </c>
-      <c r="H93" t="s">
-        <v>84</v>
-      </c>
-      <c r="I93" t="s">
-        <v>135</v>
-      </c>
-      <c r="J93">
-        <v>2</v>
-      </c>
-      <c r="K93">
-        <v>13.001141</v>
-      </c>
-      <c r="L93" t="s">
-        <v>153</v>
-      </c>
-      <c r="M93" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>2090724</v>
-      </c>
-      <c r="H94" t="s">
-        <v>90</v>
-      </c>
-      <c r="I94" t="s">
-        <v>141</v>
-      </c>
-      <c r="J94">
-        <v>13</v>
-      </c>
-      <c r="K94">
-        <v>9.719344124999999</v>
-      </c>
-      <c r="L94" t="s">
-        <v>153</v>
-      </c>
-      <c r="M94" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>2091390</v>
-      </c>
-      <c r="H95" t="s">
-        <v>76</v>
-      </c>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-      <c r="J95">
-        <v>2</v>
-      </c>
-      <c r="K95">
-        <v>6.811628</v>
-      </c>
-      <c r="L95" t="s">
-        <v>153</v>
-      </c>
-      <c r="M95" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>2090366</v>
-      </c>
-      <c r="H96" t="s">
-        <v>91</v>
-      </c>
-      <c r="I96" t="s">
-        <v>142</v>
-      </c>
-      <c r="J96">
-        <v>2</v>
-      </c>
-      <c r="K96">
-        <v>5.170655655</v>
-      </c>
-      <c r="L96" t="s">
-        <v>153</v>
-      </c>
-      <c r="M96" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2090663</v>
-      </c>
-      <c r="H97" t="s">
-        <v>63</v>
-      </c>
-      <c r="I97" t="s">
-        <v>114</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>10.368708</v>
-      </c>
-      <c r="L97" t="s">
-        <v>153</v>
-      </c>
-      <c r="M97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>2090403</v>
-      </c>
-      <c r="H98" t="s">
-        <v>85</v>
-      </c>
-      <c r="I98" t="s">
-        <v>136</v>
-      </c>
-      <c r="J98">
-        <v>9</v>
-      </c>
-      <c r="K98">
-        <v>17.96424</v>
-      </c>
-      <c r="L98" t="s">
-        <v>153</v>
-      </c>
-      <c r="M98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>2091604</v>
-      </c>
-      <c r="H99" t="s">
-        <v>92</v>
-      </c>
-      <c r="I99" t="s">
-        <v>143</v>
-      </c>
-      <c r="J99">
-        <v>2</v>
-      </c>
-      <c r="K99">
-        <v>8.019070000000001</v>
-      </c>
-      <c r="L99" t="s">
-        <v>153</v>
-      </c>
-      <c r="M99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>2090397</v>
-      </c>
-      <c r="H100" t="s">
-        <v>93</v>
-      </c>
-      <c r="I100" t="s">
-        <v>144</v>
-      </c>
-      <c r="J100">
-        <v>5</v>
-      </c>
-      <c r="K100">
-        <v>5.840643929999999</v>
-      </c>
-      <c r="L100" t="s">
-        <v>153</v>
-      </c>
-      <c r="M100" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>2092553</v>
-      </c>
-      <c r="H101" t="s">
-        <v>94</v>
-      </c>
-      <c r="I101" t="s">
-        <v>145</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101">
-        <v>9.15</v>
-      </c>
-      <c r="L101" t="s">
-        <v>153</v>
-      </c>
-      <c r="M101" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>2094214</v>
-      </c>
-      <c r="H102" t="s">
-        <v>94</v>
-      </c>
-      <c r="I102" t="s">
-        <v>145</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
-        <v>13.262584</v>
-      </c>
-      <c r="L102" t="s">
-        <v>153</v>
-      </c>
-      <c r="M102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>2094221</v>
-      </c>
-      <c r="H103" t="s">
-        <v>95</v>
-      </c>
-      <c r="I103" t="s">
-        <v>146</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103">
-        <v>14.4415</v>
-      </c>
-      <c r="L103" t="s">
-        <v>153</v>
-      </c>
-      <c r="M103" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>2093136</v>
-      </c>
-      <c r="H104" t="s">
-        <v>96</v>
-      </c>
-      <c r="I104" t="s">
-        <v>147</v>
-      </c>
-      <c r="J104">
-        <v>10</v>
-      </c>
-      <c r="K104">
-        <v>13.86</v>
-      </c>
-      <c r="L104" t="s">
-        <v>153</v>
-      </c>
-      <c r="M104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>2090588</v>
-      </c>
-      <c r="H105" t="s">
-        <v>97</v>
-      </c>
-      <c r="I105" t="s">
-        <v>148</v>
-      </c>
-      <c r="J105">
-        <v>2</v>
-      </c>
-      <c r="K105">
-        <v>7.536237890399999</v>
-      </c>
-      <c r="L105" t="s">
-        <v>153</v>
-      </c>
-      <c r="M105" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>2094191</v>
-      </c>
-      <c r="H106" t="s">
-        <v>98</v>
-      </c>
-      <c r="I106" t="s">
-        <v>149</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106">
-        <v>14.4415</v>
-      </c>
-      <c r="L106" t="s">
-        <v>153</v>
-      </c>
-      <c r="M106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>2091642</v>
-      </c>
-      <c r="H107" t="s">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s">
-        <v>131</v>
-      </c>
-      <c r="J107">
-        <v>11</v>
-      </c>
-      <c r="K107">
-        <v>5.7668505</v>
-      </c>
-      <c r="L107" t="s">
-        <v>153</v>
-      </c>
-      <c r="M107" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>2090830</v>
-      </c>
-      <c r="H108" t="s">
-        <v>99</v>
-      </c>
-      <c r="I108" t="s">
-        <v>150</v>
-      </c>
-      <c r="J108">
-        <v>5</v>
-      </c>
-      <c r="K108">
-        <v>4.710037</v>
-      </c>
-      <c r="L108" t="s">
-        <v>153</v>
-      </c>
-      <c r="M108" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>2092492</v>
-      </c>
-      <c r="H109" t="s">
-        <v>81</v>
-      </c>
-      <c r="I109" t="s">
-        <v>132</v>
-      </c>
-      <c r="J109">
-        <v>2</v>
-      </c>
-      <c r="K109">
-        <v>4.74</v>
-      </c>
-      <c r="L109" t="s">
-        <v>153</v>
-      </c>
-      <c r="M109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>2092812</v>
-      </c>
-      <c r="H110" t="s">
-        <v>100</v>
-      </c>
-      <c r="I110" t="s">
-        <v>151</v>
-      </c>
-      <c r="J110">
-        <v>12</v>
-      </c>
-      <c r="K110">
-        <v>4.84</v>
-      </c>
-      <c r="L110" t="s">
-        <v>153</v>
-      </c>
-      <c r="M110" t="s">
         <v>154</v>
       </c>
     </row>
